--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -12824,7 +12824,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12952,7 +12952,7 @@
         <v>131</v>
       </c>
       <c r="C6" s="5">
-        <v>5000000</v>
+        <v>10000</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -12824,7 +12824,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12952,7 +12952,7 @@
         <v>131</v>
       </c>
       <c r="C6" s="5">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="414">
   <si>
     <t>This work is licensed under the Creative Commons Attribution-ShareAlike 4.0 International Public License.</t>
   </si>
@@ -1272,6 +1272,9 @@
   </si>
   <si>
     <t>Sto1</t>
+  </si>
+  <si>
+    <t>Maximum Power per thousands prosumagers</t>
   </si>
 </sst>
 </file>
@@ -12824,7 +12827,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -12872,7 +12875,7 @@
         <v>295</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -12952,7 +12955,7 @@
         <v>131</v>
       </c>
       <c r="C6" s="5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LICENSE" sheetId="2" r:id="rId1"/>
@@ -25,15 +25,121 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">heat!$A$5:$R$125</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">reserves!$A$5:$W$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sources!$B$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">storage!$A$5:$M$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Technologies!$A$5:$U$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">storage!$A$5:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Technologies!$A$5:$U$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="V11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kapazitätsreserve zugeordnet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+vereinfacht: immer Mittelwert aus Hartkohle und Naturgas GuD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+biomass + other renewables</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+unterer Rand: "Commercial solar PV &gt;2 MW without tracking" --&gt; kleinere Anlagen sind teurer!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="425">
   <si>
     <t>This work is licensed under the Creative Commons Attribution-ShareAlike 4.0 International Public License.</t>
   </si>
@@ -161,9 +267,6 @@
     <t>curtailment_costs</t>
   </si>
   <si>
-    <t>dena(2012), DLR et al. (2012), own assumption</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -197,9 +300,6 @@
     <t>oc_capacity</t>
   </si>
   <si>
-    <t>Pape et al. (2014), Agora (2013)</t>
-  </si>
-  <si>
     <t>Maximum Energy</t>
   </si>
   <si>
@@ -476,9 +576,6 @@
     <t>Scholz (2012)</t>
   </si>
   <si>
-    <t>Potentials for 2020 according to Scholz (2020); includes run-of-river</t>
-  </si>
-  <si>
     <t>Arbitrarily large value</t>
   </si>
   <si>
@@ -1010,9 +1107,6 @@
     <t>Maximum heat output per hour</t>
   </si>
   <si>
-    <t>Maximum energy intake per hiur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Energy capacity </t>
   </si>
   <si>
@@ -1061,9 +1155,6 @@
     <t>https://www.diw.de/documents/publikationen/73/diw_01.c.424566.de/diw_datadoc_2013-068.pdf</t>
   </si>
   <si>
-    <t>Kunz et al. (2017)</t>
-  </si>
-  <si>
     <t>Kunz et al (2017)</t>
   </si>
   <si>
@@ -1217,9 +1308,6 @@
     <t>Kasten, Peter and Florian Hacker</t>
   </si>
   <si>
-    <t>Schlesinger et al (2014</t>
-  </si>
-  <si>
     <t>Plötz et al (2014)</t>
   </si>
   <si>
@@ -1275,6 +1363,57 @@
   </si>
   <si>
     <t>Maximum Power per thousands prosumagers</t>
+  </si>
+  <si>
+    <t>Kunz et al. (2017) + NEP 2030</t>
+  </si>
+  <si>
+    <t>Schröder et al. (2013) + ETRI 2014</t>
+  </si>
+  <si>
+    <t>NEP 2030</t>
+  </si>
+  <si>
+    <t>NEP 2030 B</t>
+  </si>
+  <si>
+    <t>checken, ob installierte Kapazitäten gut zur Nachfrage passen, oder ob wir ggf. noch ein paar Prozent als durchschnittliche Nicht-Verfügbarkeit abziehen müssen.</t>
+  </si>
+  <si>
+    <t>Pape et al. (2014) + ETRI 2014</t>
+  </si>
+  <si>
+    <t>Pape et al. (2014), Agora (2013) + ETRI 2014</t>
+  </si>
+  <si>
+    <t>Potentials for 2020 according to Scholz (2012); includes run-of-river</t>
+  </si>
+  <si>
+    <t>O'Dwyer et al (2018)</t>
+  </si>
+  <si>
+    <t>own assumption</t>
+  </si>
+  <si>
+    <t>Natural gas price</t>
+  </si>
+  <si>
+    <t>Maximum energy intake per hour</t>
+  </si>
+  <si>
+    <t>O'Dwyer et al. (2018</t>
+  </si>
+  <si>
+    <t>Ciara O'Dwyer, Muhammad Anwar, Joseph Dillon, Mostafa Bakhtvar, Giuseppina Butitta, Carlos Andrade Cabrera, Karlis Balputnis, Zane Broka, Jengenijs Kozadajevs, Antans Sauhats, Topi Rasku, Juha Kiviluoma, Wolf-Peter Schill, Alexander Zerrahn</t>
+  </si>
+  <si>
+    <t>Cost benefit analysis of SETS and alternative local small-scale storage options</t>
+  </si>
+  <si>
+    <t>Project Report D3.6 H2020 RealValue</t>
+  </si>
+  <si>
+    <t>http://www.realvalueproject.com/images/uploads/documents/D3.6_Final_v1.pdf</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,8 +1468,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1340,6 +1505,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1540,6 +1723,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1937,8 +2141,8 @@
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:AA125"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1957,78 +2161,118 @@
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="H1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="2" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="L2" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="N2" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="O2" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="P2" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="R2" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="U2" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -2036,140 +2280,140 @@
         <v>26</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="R4" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>312</v>
-      </c>
       <c r="S4" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="38" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="O5" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="S5" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="T5" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="U5" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="S5" s="38" t="s">
+      <c r="V5" s="38" t="s">
         <v>246</v>
-      </c>
-      <c r="T5" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="U5" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="V5" s="38" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>189</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
@@ -2198,25 +2442,25 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H7" s="13">
         <v>2.9000000000000001E-2</v>
@@ -2260,25 +2504,25 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H8" s="13">
         <f>0.01/2</f>
@@ -2314,25 +2558,25 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H9" s="13">
         <f>0.01/2</f>
@@ -2371,25 +2615,25 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H10" s="13">
         <v>0</v>
@@ -2424,25 +2668,25 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -2480,25 +2724,25 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
@@ -2524,32 +2768,32 @@
       </c>
       <c r="R12" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
       <c r="Y12" s="24"/>
       <c r="AA12" s="24"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -2575,32 +2819,32 @@
       </c>
       <c r="R13" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
       <c r="Y13" s="24"/>
       <c r="AA13" s="24"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H14" s="13">
         <v>0</v>
@@ -2632,32 +2876,32 @@
       </c>
       <c r="R14" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="AA14" s="24"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -2692,32 +2936,32 @@
       </c>
       <c r="R15" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
       <c r="Y15" s="24"/>
       <c r="AA15" s="24"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H16" s="13">
         <v>0</v>
@@ -2744,25 +2988,25 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H17" s="13">
         <v>2.1000000000000001E-2</v>
@@ -2804,25 +3048,25 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H18" s="13">
         <f>0.013/2</f>
@@ -2856,25 +3100,25 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H19" s="13">
         <f>0.013/2</f>
@@ -2911,25 +3155,25 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -2962,25 +3206,25 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -3016,25 +3260,25 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H22" s="13">
         <v>0</v>
@@ -3063,30 +3307,30 @@
       </c>
       <c r="R22" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -3115,30 +3359,30 @@
       </c>
       <c r="R23" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
@@ -3170,30 +3414,30 @@
       </c>
       <c r="R24" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>243</v>
-      </c>
       <c r="D25" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -3228,30 +3472,30 @@
       </c>
       <c r="R25" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
@@ -3278,25 +3522,25 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H27" s="13">
         <v>2.9000000000000001E-2</v>
@@ -3338,25 +3582,25 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H28" s="13">
         <f>0.01/2</f>
@@ -3390,25 +3634,25 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H29" s="13">
         <f>0.01/2</f>
@@ -3445,25 +3689,25 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H30" s="13">
         <v>0</v>
@@ -3496,25 +3740,25 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H31" s="13">
         <v>0</v>
@@ -3550,25 +3794,25 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H32" s="13">
         <v>0</v>
@@ -3597,30 +3841,30 @@
       </c>
       <c r="R32" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H33" s="13">
         <v>0</v>
@@ -3649,30 +3893,30 @@
       </c>
       <c r="R33" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H34" s="13">
         <v>0</v>
@@ -3704,30 +3948,30 @@
       </c>
       <c r="R34" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H35" s="13">
         <v>0</v>
@@ -3762,30 +4006,30 @@
       </c>
       <c r="R35" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H36" s="13">
         <v>0</v>
@@ -3812,25 +4056,25 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H37" s="13">
         <v>2.1000000000000001E-2</v>
@@ -3872,25 +4116,25 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H38" s="13">
         <f>0.013/2</f>
@@ -3924,25 +4168,25 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H39" s="13">
         <f>0.013/2</f>
@@ -3979,25 +4223,25 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H40" s="13">
         <v>0</v>
@@ -4030,25 +4274,25 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H41" s="13">
         <v>0</v>
@@ -4084,25 +4328,25 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H42" s="13">
         <v>0</v>
@@ -4131,30 +4375,30 @@
       </c>
       <c r="R42" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H43" s="13">
         <v>0</v>
@@ -4183,30 +4427,30 @@
       </c>
       <c r="R43" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H44" s="13">
         <v>0</v>
@@ -4238,30 +4482,30 @@
       </c>
       <c r="R44" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H45" s="13">
         <v>0</v>
@@ -4296,30 +4540,30 @@
       </c>
       <c r="R45" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H46" s="13">
         <v>0</v>
@@ -4346,25 +4590,25 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H47" s="13">
         <v>3.6999999999999998E-2</v>
@@ -4406,25 +4650,25 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H48" s="13">
         <f>0.017/2</f>
@@ -4458,25 +4702,25 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H49" s="13">
         <f>0.017/2</f>
@@ -4513,25 +4757,25 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H50" s="13">
         <v>0</v>
@@ -4564,25 +4808,25 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H51" s="13">
         <v>0</v>
@@ -4618,25 +4862,25 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H52" s="13">
         <v>0</v>
@@ -4665,30 +4909,30 @@
       </c>
       <c r="R52" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H53" s="13">
         <v>0</v>
@@ -4717,30 +4961,30 @@
       </c>
       <c r="R53" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H54" s="13">
         <v>0</v>
@@ -4772,30 +5016,30 @@
       </c>
       <c r="R54" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H55" s="13">
         <v>0</v>
@@ -4830,30 +5074,30 @@
       </c>
       <c r="R55" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H56" s="13">
         <v>0</v>
@@ -4880,25 +5124,25 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H57" s="13">
         <v>2.5000000000000001E-2</v>
@@ -4940,25 +5184,25 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H58" s="13">
         <v>0</v>
@@ -4991,25 +5235,25 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H59" s="13">
         <v>0</v>
@@ -5045,25 +5289,25 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H60" s="13">
         <v>0</v>
@@ -5096,25 +5340,25 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H61" s="13">
         <v>0</v>
@@ -5150,25 +5394,25 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H62" s="13">
         <v>0</v>
@@ -5197,30 +5441,30 @@
       </c>
       <c r="R62" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H63" s="13">
         <v>0</v>
@@ -5249,30 +5493,30 @@
       </c>
       <c r="R63" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H64" s="13">
         <v>0</v>
@@ -5304,30 +5548,30 @@
       </c>
       <c r="R64" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H65" s="13">
         <v>0</v>
@@ -5362,30 +5606,30 @@
       </c>
       <c r="R65" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H66" s="13">
         <v>0</v>
@@ -5412,25 +5656,25 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H67" s="13">
         <v>1.2999999999999999E-2</v>
@@ -5472,25 +5716,25 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H68" s="13">
         <f>0.061/2</f>
@@ -5524,25 +5768,25 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H69" s="13">
         <f>0.061/2</f>
@@ -5579,25 +5823,25 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H70" s="13">
         <v>0</v>
@@ -5630,25 +5874,25 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H71" s="13">
         <v>0</v>
@@ -5684,25 +5928,25 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H72" s="13">
         <v>0</v>
@@ -5731,30 +5975,30 @@
       </c>
       <c r="R72" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H73" s="13">
         <v>0</v>
@@ -5783,30 +6027,30 @@
       </c>
       <c r="R73" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H74" s="13">
         <v>0</v>
@@ -5838,30 +6082,30 @@
       </c>
       <c r="R74" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H75" s="13">
         <v>0</v>
@@ -5896,30 +6140,30 @@
       </c>
       <c r="R75" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H76" s="13">
         <v>0</v>
@@ -5946,25 +6190,25 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H77" s="13">
         <v>4.0000000000000001E-3</v>
@@ -6006,25 +6250,25 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H78" s="13">
         <f>0.014/2</f>
@@ -6058,25 +6302,25 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H79" s="13">
         <f>0.014/2</f>
@@ -6113,25 +6357,25 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H80" s="13">
         <v>0</v>
@@ -6164,25 +6408,25 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H81" s="13">
         <v>0</v>
@@ -6218,25 +6462,25 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H82" s="13">
         <v>0</v>
@@ -6265,30 +6509,30 @@
       </c>
       <c r="R82" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H83" s="13">
         <v>0</v>
@@ -6317,30 +6561,30 @@
       </c>
       <c r="R83" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H84" s="13">
         <v>0</v>
@@ -6372,30 +6616,30 @@
       </c>
       <c r="R84" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H85" s="13">
         <v>0</v>
@@ -6430,30 +6674,30 @@
       </c>
       <c r="R85" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H86" s="13">
         <v>0</v>
@@ -6480,25 +6724,25 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H87" s="13">
         <v>0</v>
@@ -6540,25 +6784,25 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H88" s="13">
         <f>0.34*0.76</f>
@@ -6592,25 +6836,25 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H89" s="13">
         <f>0.34*0.24</f>
@@ -6647,25 +6891,25 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H90" s="13">
         <v>0</v>
@@ -6698,25 +6942,25 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H91" s="13">
         <v>0</v>
@@ -6752,25 +6996,25 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H92" s="13">
         <v>0</v>
@@ -6799,30 +7043,30 @@
       </c>
       <c r="R92" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H93" s="13">
         <v>0</v>
@@ -6851,30 +7095,30 @@
       </c>
       <c r="R93" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H94" s="13">
         <v>0</v>
@@ -6906,30 +7150,30 @@
       </c>
       <c r="R94" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H95" s="13">
         <v>0</v>
@@ -6964,30 +7208,30 @@
       </c>
       <c r="R95" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H96" s="13">
         <v>0</v>
@@ -7014,25 +7258,25 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H97" s="13">
         <v>0</v>
@@ -7074,25 +7318,25 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H98" s="13">
         <f>0.16*0.76</f>
@@ -7126,25 +7370,25 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H99" s="13">
         <f>0.16*0.24</f>
@@ -7181,25 +7425,25 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H100" s="13">
         <v>0</v>
@@ -7232,25 +7476,25 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H101" s="13">
         <v>0</v>
@@ -7286,25 +7530,25 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H102" s="13">
         <v>0</v>
@@ -7333,30 +7577,30 @@
       </c>
       <c r="R102" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B103" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="C103" s="24" t="s">
-        <v>236</v>
-      </c>
       <c r="D103" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H103" s="13">
         <v>0</v>
@@ -7385,30 +7629,30 @@
       </c>
       <c r="R103" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H104" s="13">
         <v>0</v>
@@ -7440,30 +7684,30 @@
       </c>
       <c r="R104" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H105" s="13">
         <v>0</v>
@@ -7498,30 +7742,30 @@
       </c>
       <c r="R105" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H106" s="13">
         <v>0</v>
@@ -7548,25 +7792,25 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H107" s="13">
         <v>0</v>
@@ -7608,25 +7852,25 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H108" s="13">
         <f>0.34*0.76</f>
@@ -7660,25 +7904,25 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H109" s="13">
         <f>0.34*0.24</f>
@@ -7715,25 +7959,25 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H110" s="13">
         <v>0</v>
@@ -7766,25 +8010,25 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H111" s="13">
         <v>0</v>
@@ -7820,25 +8064,25 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G112" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H112" s="13">
         <v>0</v>
@@ -7867,30 +8111,30 @@
       </c>
       <c r="R112" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H113" s="13">
         <v>0</v>
@@ -7919,30 +8163,30 @@
       </c>
       <c r="R113" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H114" s="13">
         <v>0</v>
@@ -7974,30 +8218,30 @@
       </c>
       <c r="R114" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H115" s="13">
         <v>0</v>
@@ -8032,30 +8276,30 @@
       </c>
       <c r="R115" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H116" s="13">
         <v>0</v>
@@ -8082,25 +8326,25 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G117" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H117" s="13">
         <v>0</v>
@@ -8142,25 +8386,25 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C118" s="24" t="s">
-        <v>238</v>
-      </c>
       <c r="D118" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G118" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H118" s="13">
         <f>0.16*0.76</f>
@@ -8194,25 +8438,25 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H119" s="13">
         <f>0.16*0.24</f>
@@ -8249,25 +8493,25 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G120" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H120" s="13">
         <v>0</v>
@@ -8300,25 +8544,25 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H121" s="13">
         <v>0</v>
@@ -8354,25 +8598,25 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H122" s="13">
         <v>0</v>
@@ -8401,30 +8645,30 @@
       </c>
       <c r="R122" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H123" s="13">
         <v>0</v>
@@ -8453,30 +8697,30 @@
       </c>
       <c r="R123" s="42">
         <f>Technologies!$S$11+Technologies!$F$11*Technologies!$T$11</f>
-        <v>50.517780000000002</v>
+        <v>54.650399999999998</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H124" s="13">
         <v>0</v>
@@ -8508,30 +8752,30 @@
       </c>
       <c r="R124" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H125" s="13">
         <v>0</v>
@@ -8566,7 +8810,7 @@
       </c>
       <c r="R125" s="42">
         <f>Technologies!$S$9+Technologies!$F$9*Technologies!$T$9</f>
-        <v>32.727330000000002</v>
+        <v>30.956999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -8581,7 +8825,7 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -8600,190 +8844,190 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>373</v>
-      </c>
       <c r="H2" s="31" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H3" s="8">
         <v>2013</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H5" s="8">
         <v>2012</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H6" s="8">
         <v>2012</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H7" s="8">
         <v>2014</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F8" s="8">
         <v>67</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H8" s="8">
         <v>2014</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H9" s="8">
         <v>2014</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F11" s="8">
         <v>92</v>
@@ -8792,131 +9036,164 @@
         <v>2017</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>358</v>
+        <v>420</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>359</v>
+        <v>421</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2018</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>360</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2014</v>
+        <v>356</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>354</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>408</v>
+        <v>390</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="8">
+        <v>2014</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>411</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>394</v>
+        <v>403</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>146</v>
+        <v>332</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="8">
+        <v>68</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2013</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="8">
-        <v>68</v>
+        <v>347</v>
       </c>
       <c r="H17" s="8">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>352</v>
+        <v>396</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>397</v>
       </c>
       <c r="H18" s="8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>353</v>
+        <v>398</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H19" s="8">
         <v>2013</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8940,22 +9217,23 @@
     <sortCondition ref="B3:B19"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1"/>
-    <hyperlink ref="I11" r:id="rId2"/>
-    <hyperlink ref="I6" r:id="rId3"/>
-    <hyperlink ref="I18" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
-    <hyperlink ref="I12" r:id="rId6"/>
-    <hyperlink ref="I3" r:id="rId7"/>
-    <hyperlink ref="I7" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I9" r:id="rId10"/>
-    <hyperlink ref="I13" r:id="rId11"/>
-    <hyperlink ref="I19" r:id="rId12"/>
-    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I19" r:id="rId1"/>
+    <hyperlink ref="I16" r:id="rId2"/>
+    <hyperlink ref="I11" r:id="rId3"/>
+    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="I17" r:id="rId5"/>
+    <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="I13" r:id="rId7"/>
+    <hyperlink ref="I3" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink ref="I10" r:id="rId10"/>
+    <hyperlink ref="I9" r:id="rId11"/>
+    <hyperlink ref="I14" r:id="rId12"/>
+    <hyperlink ref="I18" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -8980,16 +9258,16 @@
   <sheetData>
     <row r="2" spans="2:22" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>21</v>
@@ -9004,41 +9282,41 @@
         <v>35</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5">
         <v>10000</v>
@@ -9062,7 +9340,7 @@
         <v>4800</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M3" s="5">
         <v>1</v>
@@ -9073,7 +9351,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C4" s="5">
         <v>10000</v>
@@ -9097,7 +9375,7 @@
         <v>4000</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M4" s="5">
         <v>1</v>
@@ -9108,7 +9386,7 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C5" s="5">
         <v>10000</v>
@@ -9132,7 +9410,7 @@
         <v>1000</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M5" s="5">
         <v>1</v>
@@ -9143,7 +9421,7 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C6" s="5">
         <v>10000</v>
@@ -9167,7 +9445,7 @@
         <v>5000</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
@@ -9178,7 +9456,7 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5">
         <v>10000</v>
@@ -9202,7 +9480,7 @@
         <v>3000</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M7" s="5">
         <v>1</v>
@@ -9213,7 +9491,7 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5">
         <v>10000</v>
@@ -9237,7 +9515,7 @@
         <v>2600</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M8" s="5">
         <v>1</v>
@@ -9248,7 +9526,7 @@
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C9" s="5">
         <v>10000</v>
@@ -9272,7 +9550,7 @@
         <v>7500</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M9" s="5">
         <v>1</v>
@@ -9283,7 +9561,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C10" s="5">
         <v>10000</v>
@@ -9307,7 +9585,7 @@
         <v>4700</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
@@ -9318,7 +9596,7 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C11" s="5">
         <v>10000</v>
@@ -9342,7 +9620,7 @@
         <v>4300</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O11" s="5">
         <v>1</v>
@@ -9353,7 +9631,7 @@
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C12" s="5">
         <v>10000</v>
@@ -9377,7 +9655,7 @@
         <v>2400</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q12" s="5">
         <v>1</v>
@@ -9388,7 +9666,7 @@
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="5">
         <v>10000</v>
@@ -9412,7 +9690,7 @@
         <v>600</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="S13" s="5">
         <v>1</v>
@@ -9423,7 +9701,7 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="5">
         <v>10000</v>
@@ -9447,7 +9725,7 @@
         <v>1200</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="T14" s="5">
         <v>1</v>
@@ -9458,7 +9736,7 @@
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C15" s="5">
         <v>10000</v>
@@ -9482,7 +9760,7 @@
         <v>1700</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="U15" s="5">
         <v>1</v>
@@ -9493,7 +9771,7 @@
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" s="5">
         <v>10000</v>
@@ -9517,7 +9795,7 @@
         <v>3700</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O16" s="5">
         <v>1</v>
@@ -9575,13 +9853,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9598,7 +9876,7 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -9606,11 +9884,11 @@
       <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
+      <c r="F1" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>409</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>23</v>
@@ -9618,11 +9896,11 @@
       <c r="I1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>23</v>
+      <c r="J1" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>409</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>36</v>
@@ -9645,37 +9923,37 @@
       <c r="R1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>37</v>
+      <c r="S1" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>410</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>30</v>
@@ -9693,101 +9971,101 @@
         <v>33</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>266</v>
-      </c>
       <c r="V2" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="V4" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
@@ -9838,24 +10116,24 @@
         <v>9</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" s="49" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -9864,7 +10142,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="20">
         <v>0.9</v>
@@ -9881,11 +10159,11 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
-        <v>3000000</v>
-      </c>
-      <c r="K6" s="5">
-        <v>50</v>
+      <c r="J6" s="50">
+        <v>5620000</v>
+      </c>
+      <c r="K6" s="50">
+        <v>60</v>
       </c>
       <c r="M6" s="5">
         <v>0.04</v>
@@ -9905,7 +10183,7 @@
       <c r="R6" s="5">
         <v>0</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="51">
         <v>0</v>
       </c>
       <c r="T6" s="5">
@@ -9914,28 +10192,28 @@
       <c r="U6" s="5">
         <v>0</v>
       </c>
-      <c r="V6" s="5">
-        <v>5857.4674195989719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V6" s="50">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7" s="20">
         <v>0.38</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.39900000000000002</v>
+      <c r="F7" s="50">
+        <v>0.311</v>
       </c>
       <c r="G7" s="5">
         <v>30000</v>
@@ -9970,37 +10248,40 @@
       <c r="R7" s="5">
         <v>0.04</v>
       </c>
-      <c r="S7" s="5">
-        <v>3.9600000000000004</v>
-      </c>
-      <c r="T7" s="5">
-        <v>33.33</v>
+      <c r="S7" s="50">
+        <v>5.6</v>
+      </c>
+      <c r="T7" s="50">
+        <v>29.4</v>
       </c>
       <c r="U7" s="5">
         <v>0</v>
       </c>
-      <c r="V7" s="5">
-        <v>14928.420768422735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V7" s="50">
+        <v>9300</v>
+      </c>
+      <c r="W7" s="55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E8" s="20">
         <v>0.43</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.33700000000000002</v>
+      <c r="F8" s="50">
+        <v>0.26</v>
       </c>
       <c r="G8" s="5">
         <v>30000</v>
@@ -10035,37 +10316,37 @@
       <c r="R8" s="5">
         <v>0.06</v>
       </c>
-      <c r="S8" s="5">
-        <v>10.08</v>
-      </c>
-      <c r="T8" s="5">
-        <v>33.33</v>
+      <c r="S8" s="50">
+        <v>8.4</v>
+      </c>
+      <c r="T8" s="50">
+        <v>29.4</v>
       </c>
       <c r="U8" s="5">
         <v>0</v>
       </c>
-      <c r="V8" s="5">
-        <v>21846.469417204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V8" s="50">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="20">
         <v>0.54200000000000004</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.20100000000000001</v>
+      <c r="F9" s="50">
+        <v>0.155</v>
       </c>
       <c r="G9" s="5">
         <v>20000</v>
@@ -10100,37 +10381,38 @@
       <c r="R9" s="5">
         <v>0.08</v>
       </c>
-      <c r="S9" s="5">
-        <v>26.028000000000002</v>
-      </c>
-      <c r="T9" s="5">
-        <v>33.33</v>
+      <c r="S9" s="50">
+        <v>26.4</v>
+      </c>
+      <c r="T9" s="50">
+        <v>29.4</v>
       </c>
       <c r="U9" s="5">
         <v>0</v>
       </c>
-      <c r="V9" s="5">
-        <v>13488.991968036587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="50">
+        <f>35200/2</f>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="20">
         <v>0.4</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.20100000000000001</v>
+      <c r="F10" s="50">
+        <v>0.155</v>
       </c>
       <c r="G10" s="5">
         <v>15000</v>
@@ -10165,37 +10447,38 @@
       <c r="R10" s="5">
         <v>0.15</v>
       </c>
-      <c r="S10" s="5">
-        <v>26.028000000000002</v>
-      </c>
-      <c r="T10" s="5">
-        <v>33.33</v>
+      <c r="S10" s="50">
+        <v>26.4</v>
+      </c>
+      <c r="T10" s="50">
+        <v>29.4</v>
       </c>
       <c r="U10" s="5">
         <v>0</v>
       </c>
-      <c r="V10" s="5">
-        <v>13488.991968036587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="50">
+        <f>35200/2</f>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="20">
         <v>0.35</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.26600000000000001</v>
+      <c r="F11" s="50">
+        <v>0.216</v>
       </c>
       <c r="G11" s="5">
         <v>6960</v>
@@ -10230,87 +10513,103 @@
       <c r="R11" s="5">
         <v>0.15</v>
       </c>
-      <c r="S11" s="5">
-        <v>41.652000000000001</v>
-      </c>
-      <c r="T11" s="5">
-        <v>33.33</v>
+      <c r="S11" s="50">
+        <v>48.3</v>
+      </c>
+      <c r="T11" s="50">
+        <v>29.4</v>
       </c>
       <c r="U11" s="5">
         <v>0</v>
       </c>
-      <c r="V11" s="5">
-        <v>1248.1130423920638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0.35</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="G12" s="5">
-        <v>30000</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="V11" s="50">
+        <f>1200+2000</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" ref="E12:K12" si="0">AVERAGE(E8:E9)</f>
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F12" s="50">
+        <f t="shared" si="0"/>
+        <v>0.20750000000000002</v>
+      </c>
+      <c r="G12" s="50">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="H12" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
+        <f t="shared" si="0"/>
+        <v>1050000</v>
+      </c>
+      <c r="K12" s="50">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="M12" s="5">
+      <c r="L12" s="50"/>
+      <c r="M12" s="50">
+        <f t="shared" ref="M12:S12" si="1">AVERAGE(M8:M9)</f>
         <v>0.04</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="50">
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="50">
+        <f t="shared" si="1"/>
         <v>8760000000</v>
       </c>
-      <c r="P12" s="5">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>30</v>
-      </c>
-      <c r="R12" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="S12" s="5">
-        <v>18.054000000000002</v>
-      </c>
-      <c r="T12" s="5">
-        <v>33.33</v>
+      <c r="P12" s="50">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q12" s="50">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R12" s="50">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S12" s="50">
+        <f t="shared" si="1"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="T12" s="50">
+        <v>29.4</v>
       </c>
       <c r="U12" s="5">
         <v>0</v>
       </c>
-      <c r="V12" s="5">
-        <v>171.05426410986715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V12" s="50">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -10319,7 +10618,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="20">
         <v>0.48699999999999999</v>
@@ -10369,13 +10668,14 @@
       <c r="U13" s="5">
         <v>0</v>
       </c>
-      <c r="V13" s="5">
-        <v>6894.2927803410721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V13" s="50">
+        <f>6000+1300</f>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
@@ -10384,7 +10684,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="20">
         <v>1</v>
@@ -10392,8 +10692,9 @@
       <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
-        <v>35000</v>
+      <c r="G14" s="50">
+        <f>0.022*J14</f>
+        <v>28600</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -10401,10 +10702,10 @@
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="J14" s="5">
-        <v>1182000</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="J14" s="50">
+        <v>1300000</v>
+      </c>
+      <c r="K14" s="50">
         <v>25</v>
       </c>
       <c r="M14" s="5">
@@ -10431,13 +10732,13 @@
       <c r="U14" s="5">
         <v>0</v>
       </c>
-      <c r="V14" s="5">
-        <v>55282.481202403666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="50">
+        <v>81500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
@@ -10446,7 +10747,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="20">
         <v>1</v>
@@ -10454,8 +10755,9 @@
       <c r="F15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="5">
-        <v>100000</v>
+      <c r="G15" s="50">
+        <f>0.03*J15</f>
+        <v>77400</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -10463,11 +10765,11 @@
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="J15" s="5">
-        <v>3934571.4285714286</v>
-      </c>
-      <c r="K15" s="5">
-        <v>25</v>
+      <c r="J15" s="50">
+        <v>2580000</v>
+      </c>
+      <c r="K15" s="50">
+        <v>30</v>
       </c>
       <c r="M15" s="5">
         <v>0.04</v>
@@ -10493,22 +10795,22 @@
       <c r="U15" s="5">
         <v>0</v>
       </c>
-      <c r="V15" s="5">
-        <v>11931.470763108704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="50">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="20">
         <v>1</v>
@@ -10516,8 +10818,9 @@
       <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="5">
-        <v>25000</v>
+      <c r="G16" s="50">
+        <f>0.017*J16</f>
+        <v>10880</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -10525,10 +10828,10 @@
       <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="5">
-        <v>600000</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="J16" s="50">
+        <v>640000</v>
+      </c>
+      <c r="K16" s="50">
         <v>25</v>
       </c>
       <c r="M16" s="5">
@@ -10555,26 +10858,24 @@
       <c r="U16" s="5">
         <v>0</v>
       </c>
-      <c r="V16" s="5">
-        <v>63959.325331165601</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="20"/>
+      <c r="V16" s="50">
+        <v>91300</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:U17"/>
+  <autoFilter ref="A5:U16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10597,22 +10898,22 @@
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>414</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>37</v>
@@ -10629,8 +10930,8 @@
       <c r="M1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>37</v>
+      <c r="N1" s="48" t="s">
+        <v>411</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>37</v>
@@ -10641,46 +10942,46 @@
         <v>25</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -10688,66 +10989,66 @@
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="O4" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>32</v>
@@ -10759,45 +11060,45 @@
         <v>7</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="M5" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="C6" s="5">
         <v>0.5</v>
       </c>
       <c r="D6" s="5">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="E6" s="5">
         <v>10000</v>
       </c>
-      <c r="F6" s="5">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1100000</v>
-      </c>
-      <c r="H6" s="5">
-        <v>80</v>
+      <c r="F6" s="50">
+        <v>205000</v>
+      </c>
+      <c r="G6" s="50">
+        <v>140000</v>
+      </c>
+      <c r="H6" s="50">
+        <v>12</v>
       </c>
       <c r="I6" s="5">
         <v>0.04</v>
@@ -10806,7 +11107,7 @@
         <v>100000</v>
       </c>
       <c r="K6" s="5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="L6" s="5">
         <v>0.5</v>
@@ -10814,38 +11115,34 @@
       <c r="M6" s="13">
         <v>1000</v>
       </c>
-      <c r="N6" s="13">
-        <v>6500</v>
-      </c>
-      <c r="O6" s="13">
-        <f>7*N6</f>
-        <v>45500</v>
+      <c r="N6" s="56">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>412</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5">
         <v>0.5</v>
       </c>
       <c r="D7" s="5">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="E7" s="5">
         <v>10000</v>
       </c>
-      <c r="F7" s="5">
-        <v>300000</v>
-      </c>
-      <c r="G7" s="5">
-        <v>65000</v>
-      </c>
-      <c r="H7" s="5">
-        <v>20</v>
+      <c r="F7" s="50">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>3000000</v>
+      </c>
+      <c r="H7" s="50">
+        <v>60</v>
       </c>
       <c r="I7" s="5">
         <v>0.04</v>
@@ -10854,7 +11151,7 @@
         <v>100000</v>
       </c>
       <c r="K7" s="5">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="L7" s="5">
         <v>0.5</v>
@@ -10862,6 +11159,13 @@
       <c r="M7" s="13">
         <v>1000</v>
       </c>
+      <c r="N7" s="56">
+        <v>11600</v>
+      </c>
+      <c r="O7" s="56">
+        <f>7*N7</f>
+        <v>81200</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
@@ -10875,17 +11179,8 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A5:M7"/>
+  <autoFilter ref="A5:M6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10896,7 +11191,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD19"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10918,16 +11213,16 @@
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>23</v>
@@ -10939,10 +11234,10 @@
         <v>37</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>37</v>
@@ -10959,61 +11254,61 @@
         <v>25</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="29"/>
       <c r="E3" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>147</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -11021,63 +11316,63 @@
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>32</v>
@@ -11089,24 +11384,24 @@
         <v>7</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -11156,7 +11451,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11181,13 +11476,13 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>37</v>
@@ -11196,16 +11491,16 @@
         <v>37</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11213,37 +11508,37 @@
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -11251,48 +11546,48 @@
         <v>26</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>272</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>31</v>
@@ -11307,24 +11602,24 @@
         <v>6</v>
       </c>
       <c r="J5" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>79</v>
-      </c>
       <c r="L5" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="13">
         <v>500</v>
@@ -11353,13 +11648,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="13">
         <v>1500</v>
@@ -11388,13 +11683,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="13">
         <v>8000</v>
@@ -11423,13 +11718,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="13">
         <v>0.5</v>
@@ -11461,13 +11756,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="13">
         <v>0.5</v>
@@ -11499,13 +11794,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13">
         <v>50</v>
@@ -11537,13 +11832,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="13">
         <v>0.5</v>
@@ -11575,13 +11870,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="13">
         <v>0.5</v>
@@ -11722,7 +12017,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11754,28 +12049,28 @@
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -11783,31 +12078,31 @@
         <v>25</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -11815,68 +12110,68 @@
         <v>26</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>119</v>
-      </c>
       <c r="H5" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>125</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="13">
         <v>41.09375</v>
@@ -11905,10 +12200,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="13">
         <v>41.09375</v>
@@ -11937,10 +12232,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="13">
         <v>41.09375</v>
@@ -11969,10 +12264,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="13">
         <v>41.09375</v>
@@ -12001,10 +12296,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="13">
         <v>41.09375</v>
@@ -12033,10 +12328,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="13">
         <v>41.09375</v>
@@ -12065,10 +12360,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="13">
         <v>41.09375</v>
@@ -12097,10 +12392,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="13">
         <v>41.09375</v>
@@ -12129,10 +12424,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="13">
         <v>41.09375</v>
@@ -12161,10 +12456,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="13">
         <v>41.09375</v>
@@ -12193,10 +12488,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="13">
         <v>41.09375</v>
@@ -12225,10 +12520,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="13">
         <v>41.09375</v>
@@ -12257,10 +12552,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="13">
         <v>41.09375</v>
@@ -12289,10 +12584,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="13">
         <v>41.09375</v>
@@ -12321,10 +12616,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="13">
         <v>41.09375</v>
@@ -12353,10 +12648,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="13">
         <v>41.09375</v>
@@ -12385,10 +12680,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" s="13">
         <v>41.09375</v>
@@ -12417,10 +12712,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="13">
         <v>41.09375</v>
@@ -12449,10 +12744,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="13">
         <v>41.09375</v>
@@ -12481,10 +12776,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="13">
         <v>41.09375</v>
@@ -12513,10 +12808,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="13">
         <v>41.09375</v>
@@ -12545,10 +12840,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="13">
         <v>41.09375</v>
@@ -12577,10 +12872,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="13">
         <v>41.09375</v>
@@ -12609,10 +12904,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C29" s="13">
         <v>41.09375</v>
@@ -12641,10 +12936,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="13">
         <v>41.09375</v>
@@ -12673,10 +12968,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="13">
         <v>41.09375</v>
@@ -12705,10 +13000,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="13">
         <v>41.09375</v>
@@ -12737,10 +13032,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="13">
         <v>41.09375</v>
@@ -12826,7 +13121,7 @@
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -12872,25 +13167,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -12903,56 +13198,56 @@
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="I4" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="5">
         <v>10</v>
@@ -12961,10 +13256,10 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I6" s="37">
         <v>1000000</v>
@@ -13412,7 +13707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H30" sqref="H30"/>
+      <selection pane="topRight" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13443,25 +13738,25 @@
         <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13469,40 +13764,40 @@
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="K2" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="L2" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -13510,69 +13805,69 @@
         <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="L5" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -13587,19 +13882,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F6" s="20"/>
       <c r="K6" s="5">
@@ -13611,19 +13906,19 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F7" s="20"/>
       <c r="K7" s="5">
@@ -13635,19 +13930,19 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F8" s="20">
         <v>1.9115312474500898</v>
@@ -13670,19 +13965,19 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F9" s="20">
         <v>3.2418772096896795</v>
@@ -13705,19 +14000,19 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F10" s="20">
         <v>1.9115312474500898</v>
@@ -13740,19 +14035,19 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F11" s="20">
         <v>3.2418772096896795</v>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LICENSE" sheetId="2" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="425">
   <si>
     <t>This work is licensed under the Creative Commons Attribution-ShareAlike 4.0 International Public License.</t>
   </si>
@@ -1591,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1743,6 +1743,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9857,7 +9860,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U31" sqref="U31"/>
     </sheetView>
@@ -10872,10 +10875,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10892,7 +10895,7 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -10936,8 +10939,11 @@
       <c r="O1" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -10984,7 +10990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -11028,7 +11034,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -11075,7 +11081,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -11115,11 +11121,12 @@
       <c r="M6" s="13">
         <v>1000</v>
       </c>
-      <c r="N6" s="56">
+      <c r="N6" s="57"/>
+      <c r="P6" s="56">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -11167,16 +11174,16 @@
         <v>81200</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
     </row>
   </sheetData>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -1383,9 +1383,6 @@
     <t>Pape et al. (2014) + ETRI 2014</t>
   </si>
   <si>
-    <t>Pape et al. (2014), Agora (2013) + ETRI 2014</t>
-  </si>
-  <si>
     <t>Potentials for 2020 according to Scholz (2012); includes run-of-river</t>
   </si>
   <si>
@@ -1414,6 +1411,9 @@
   </si>
   <si>
     <t>http://www.realvalueproject.com/images/uploads/documents/D3.6_Final_v1.pdf</t>
+  </si>
+  <si>
+    <t>Pape et al. (2014), Agora (2013) + ETRI 2014 + Graulich 2018</t>
   </si>
 </sst>
 </file>
@@ -2165,49 +2165,49 @@
         <v>24</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="R1" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>417</v>
-      </c>
       <c r="T1" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>320</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>321</v>
@@ -9044,22 +9044,22 @@
     </row>
     <row r="12" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>420</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="D12" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E12" s="43" t="s">
         <v>422</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>423</v>
       </c>
       <c r="H12" s="8">
         <v>2018</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10877,8 +10877,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10916,7 +10916,7 @@
         <v>413</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>37</v>
@@ -11104,7 +11104,7 @@
         <v>140000</v>
       </c>
       <c r="H6" s="50">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5">
         <v>0.04</v>
@@ -11315,7 +11315,7 @@
         <v>142</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LICENSE" sheetId="2" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="426">
   <si>
     <t>This work is licensed under the Creative Commons Attribution-ShareAlike 4.0 International Public License.</t>
   </si>
@@ -1414,6 +1414,9 @@
   </si>
   <si>
     <t>Pape et al. (2014), Agora (2013) + ETRI 2014 + Graulich 2018</t>
+  </si>
+  <si>
+    <t>changed to residential values</t>
   </si>
 </sst>
 </file>
@@ -9860,9 +9863,9 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10823,7 +10826,7 @@
       </c>
       <c r="G16" s="50">
         <f>0.017*J16</f>
-        <v>10880</v>
+        <v>16830</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -10832,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="50">
-        <v>640000</v>
+        <v>990000</v>
       </c>
       <c r="K16" s="50">
         <v>25</v>
@@ -10863,6 +10866,9 @@
       </c>
       <c r="V16" s="50">
         <v>91300</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -10877,7 +10883,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -9865,7 +9865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W32" sqref="W32"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="G16" s="50">
         <f>0.017*J16</f>
-        <v>16830</v>
+        <v>20027.7</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -10835,7 +10835,8 @@
         <v>0</v>
       </c>
       <c r="J16" s="50">
-        <v>990000</v>
+        <f>1.19*990000</f>
+        <v>1178100</v>
       </c>
       <c r="K16" s="50">
         <v>25</v>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -10825,8 +10825,8 @@
         <v>0</v>
       </c>
       <c r="G16" s="50">
-        <f>0.017*J16</f>
-        <v>20027.7</v>
+        <f>0.02*J16</f>
+        <v>23562</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -10885,7 +10885,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LICENSE" sheetId="2" r:id="rId1"/>
@@ -9863,9 +9863,9 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="G16" s="50">
         <f>0.02*J16</f>
-        <v>23562</v>
+        <v>20230</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -10835,8 +10835,8 @@
         <v>0</v>
       </c>
       <c r="J16" s="50">
-        <f>1.19*990000</f>
-        <v>1178100</v>
+        <f>1.19*850000</f>
+        <v>1011500</v>
       </c>
       <c r="K16" s="50">
         <v>25</v>
@@ -10884,8 +10884,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -11102,13 +11102,16 @@
         <v>0.92</v>
       </c>
       <c r="E6" s="5">
-        <v>10000</v>
+        <f>1.19*10000</f>
+        <v>11900</v>
       </c>
       <c r="F6" s="50">
-        <v>205000</v>
+        <f>205000*1.19</f>
+        <v>243950</v>
       </c>
       <c r="G6" s="50">
-        <v>140000</v>
+        <f>140000*1.19</f>
+        <v>166600</v>
       </c>
       <c r="H6" s="50">
         <v>15</v>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LICENSE" sheetId="2" r:id="rId1"/>
@@ -9863,9 +9863,9 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10866,7 +10866,8 @@
         <v>0</v>
       </c>
       <c r="V16" s="50">
-        <v>91300</v>
+        <f>91300-1500*10</f>
+        <v>76300</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>425</v>
@@ -10884,7 +10885,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">storage!$A$5:$M$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Technologies!$A$5:$U$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -38,7 +38,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="V11" authorId="0" shapeId="0">
+    <comment ref="V11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="0" shapeId="0">
+    <comment ref="V13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0">
+    <comment ref="J16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1422,11 +1422,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,7 +1753,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1789,7 +1789,7 @@
         <xdr:cNvPr id="2" name="Grafik 1" descr="Creative Commons Lizenzvertrag">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1801,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1821,7 +1821,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1836,9 +1836,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1876,9 +1876,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1910,10 +1910,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1945,10 +1944,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2121,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2"/>
   <sheetViews>
@@ -2129,9 +2127,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2143,7 +2141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:AA125"/>
   <sheetViews>
@@ -2151,7 +2149,7 @@
       <selection sqref="A1:XFD125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="13"/>
     <col min="3" max="6" width="14" style="13" customWidth="1"/>
@@ -2163,7 +2161,7 @@
     <col min="19" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2281,7 +2279,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="38" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="38" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>45</v>
       </c>
@@ -2399,7 +2397,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27">
       <c r="A6" s="13" t="s">
         <v>130</v>
       </c>
@@ -2446,7 +2444,7 @@
       <c r="Y6" s="24"/>
       <c r="AA6" s="24"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="A7" s="13" t="s">
         <v>130</v>
       </c>
@@ -2508,7 +2506,7 @@
       <c r="Y7" s="24"/>
       <c r="AA7" s="24"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8" s="13" t="s">
         <v>130</v>
       </c>
@@ -2562,7 +2560,7 @@
       <c r="Y8" s="24"/>
       <c r="AA8" s="24"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="13" t="s">
         <v>130</v>
       </c>
@@ -2619,7 +2617,7 @@
       <c r="Y9" s="24"/>
       <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10" s="13" t="s">
         <v>130</v>
       </c>
@@ -2672,7 +2670,7 @@
       <c r="Y10" s="24"/>
       <c r="AA10" s="24"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11" s="13" t="s">
         <v>130</v>
       </c>
@@ -2728,7 +2726,7 @@
       <c r="Y11" s="24"/>
       <c r="AA11" s="24"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="A12" s="13" t="s">
         <v>130</v>
       </c>
@@ -2779,7 +2777,7 @@
       <c r="Y12" s="24"/>
       <c r="AA12" s="24"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="A13" s="13" t="s">
         <v>130</v>
       </c>
@@ -2830,7 +2828,7 @@
       <c r="Y13" s="24"/>
       <c r="AA13" s="24"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="A14" s="13" t="s">
         <v>130</v>
       </c>
@@ -2887,7 +2885,7 @@
       <c r="Y14" s="24"/>
       <c r="AA14" s="24"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" s="13" t="s">
         <v>130</v>
       </c>
@@ -2947,7 +2945,7 @@
       <c r="Y15" s="24"/>
       <c r="AA15" s="24"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="A16" s="13" t="s">
         <v>130</v>
       </c>
@@ -2992,7 +2990,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="13" t="s">
         <v>130</v>
       </c>
@@ -3052,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="13" t="s">
         <v>130</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="13" t="s">
         <v>130</v>
       </c>
@@ -3159,7 +3157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="13" t="s">
         <v>130</v>
       </c>
@@ -3210,7 +3208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="13" t="s">
         <v>130</v>
       </c>
@@ -3264,7 +3262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="13" t="s">
         <v>130</v>
       </c>
@@ -3316,7 +3314,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="13" t="s">
         <v>130</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="13" t="s">
         <v>130</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -3526,7 +3524,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -3586,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="13" t="s">
         <v>130</v>
       </c>
@@ -3638,7 +3636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="13" t="s">
         <v>130</v>
       </c>
@@ -3693,7 +3691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="13" t="s">
         <v>130</v>
       </c>
@@ -3744,7 +3742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="13" t="s">
         <v>130</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="13" t="s">
         <v>130</v>
       </c>
@@ -3850,7 +3848,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="13" t="s">
         <v>130</v>
       </c>
@@ -3902,7 +3900,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="13" t="s">
         <v>130</v>
       </c>
@@ -3957,7 +3955,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="13" t="s">
         <v>130</v>
       </c>
@@ -4015,7 +4013,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="13" t="s">
         <v>130</v>
       </c>
@@ -4060,7 +4058,7 @@
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="13" t="s">
         <v>130</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" s="13" t="s">
         <v>130</v>
       </c>
@@ -4172,7 +4170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="13" t="s">
         <v>130</v>
       </c>
@@ -4227,7 +4225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" s="13" t="s">
         <v>130</v>
       </c>
@@ -4278,7 +4276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
@@ -4332,7 +4330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="13" t="s">
         <v>130</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="13" t="s">
         <v>130</v>
       </c>
@@ -4436,7 +4434,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" s="13" t="s">
         <v>130</v>
       </c>
@@ -4491,7 +4489,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" s="13" t="s">
         <v>130</v>
       </c>
@@ -4549,7 +4547,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" s="13" t="s">
         <v>130</v>
       </c>
@@ -4594,7 +4592,7 @@
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" s="13" t="s">
         <v>130</v>
       </c>
@@ -4654,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" s="13" t="s">
         <v>130</v>
       </c>
@@ -4706,7 +4704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="13" t="s">
         <v>130</v>
       </c>
@@ -4761,7 +4759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="13" t="s">
         <v>130</v>
       </c>
@@ -4812,7 +4810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="13" t="s">
         <v>130</v>
       </c>
@@ -4866,7 +4864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="13" t="s">
         <v>130</v>
       </c>
@@ -4918,7 +4916,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="13" t="s">
         <v>130</v>
       </c>
@@ -4970,7 +4968,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="13" t="s">
         <v>130</v>
       </c>
@@ -5025,7 +5023,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="13" t="s">
         <v>130</v>
       </c>
@@ -5083,7 +5081,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="13" t="s">
         <v>130</v>
       </c>
@@ -5128,7 +5126,7 @@
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
@@ -5188,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="13" t="s">
         <v>130</v>
       </c>
@@ -5239,7 +5237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59" s="13" t="s">
         <v>130</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60" s="13" t="s">
         <v>130</v>
       </c>
@@ -5344,7 +5342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61" s="13" t="s">
         <v>130</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62" s="13" t="s">
         <v>130</v>
       </c>
@@ -5450,7 +5448,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63" s="13" t="s">
         <v>130</v>
       </c>
@@ -5502,7 +5500,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64" s="13" t="s">
         <v>130</v>
       </c>
@@ -5557,7 +5555,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" s="13" t="s">
         <v>130</v>
       </c>
@@ -5615,7 +5613,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66" s="13" t="s">
         <v>130</v>
       </c>
@@ -5660,7 +5658,7 @@
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67" s="13" t="s">
         <v>130</v>
       </c>
@@ -5720,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68" s="13" t="s">
         <v>130</v>
       </c>
@@ -5772,7 +5770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69" s="13" t="s">
         <v>130</v>
       </c>
@@ -5827,7 +5825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70" s="13" t="s">
         <v>130</v>
       </c>
@@ -5878,7 +5876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71" s="13" t="s">
         <v>130</v>
       </c>
@@ -5932,7 +5930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72" s="13" t="s">
         <v>130</v>
       </c>
@@ -5984,7 +5982,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73" s="13" t="s">
         <v>130</v>
       </c>
@@ -6036,7 +6034,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74" s="13" t="s">
         <v>130</v>
       </c>
@@ -6091,7 +6089,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="A75" s="13" t="s">
         <v>130</v>
       </c>
@@ -6149,7 +6147,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="A76" s="13" t="s">
         <v>130</v>
       </c>
@@ -6194,7 +6192,7 @@
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="A77" s="13" t="s">
         <v>130</v>
       </c>
@@ -6254,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="A78" s="13" t="s">
         <v>130</v>
       </c>
@@ -6306,7 +6304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="A79" s="13" t="s">
         <v>130</v>
       </c>
@@ -6361,7 +6359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22">
       <c r="A80" s="13" t="s">
         <v>130</v>
       </c>
@@ -6412,7 +6410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22">
       <c r="A81" s="13" t="s">
         <v>130</v>
       </c>
@@ -6466,7 +6464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22">
       <c r="A82" s="13" t="s">
         <v>130</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22">
       <c r="A83" s="13" t="s">
         <v>130</v>
       </c>
@@ -6570,7 +6568,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22">
       <c r="A84" s="13" t="s">
         <v>130</v>
       </c>
@@ -6625,7 +6623,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22">
       <c r="A85" s="13" t="s">
         <v>130</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22">
       <c r="A86" s="13" t="s">
         <v>130</v>
       </c>
@@ -6728,7 +6726,7 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22">
       <c r="A87" s="13" t="s">
         <v>130</v>
       </c>
@@ -6788,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22">
       <c r="A88" s="13" t="s">
         <v>130</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22">
       <c r="A89" s="13" t="s">
         <v>130</v>
       </c>
@@ -6895,7 +6893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22">
       <c r="A90" s="13" t="s">
         <v>130</v>
       </c>
@@ -6946,7 +6944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22">
       <c r="A91" s="13" t="s">
         <v>130</v>
       </c>
@@ -7000,7 +6998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22">
       <c r="A92" s="13" t="s">
         <v>130</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22">
       <c r="A93" s="13" t="s">
         <v>130</v>
       </c>
@@ -7104,7 +7102,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22">
       <c r="A94" s="13" t="s">
         <v>130</v>
       </c>
@@ -7159,7 +7157,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22">
       <c r="A95" s="13" t="s">
         <v>130</v>
       </c>
@@ -7217,7 +7215,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22">
       <c r="A96" s="13" t="s">
         <v>130</v>
       </c>
@@ -7262,7 +7260,7 @@
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22">
       <c r="A97" s="13" t="s">
         <v>130</v>
       </c>
@@ -7322,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22">
       <c r="A98" s="13" t="s">
         <v>130</v>
       </c>
@@ -7374,7 +7372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22">
       <c r="A99" s="13" t="s">
         <v>130</v>
       </c>
@@ -7429,7 +7427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22">
       <c r="A100" s="13" t="s">
         <v>130</v>
       </c>
@@ -7480,7 +7478,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22">
       <c r="A101" s="13" t="s">
         <v>130</v>
       </c>
@@ -7534,7 +7532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22">
       <c r="A102" s="13" t="s">
         <v>130</v>
       </c>
@@ -7586,7 +7584,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -7638,7 +7636,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22">
       <c r="A104" s="13" t="s">
         <v>130</v>
       </c>
@@ -7693,7 +7691,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22">
       <c r="A105" s="13" t="s">
         <v>130</v>
       </c>
@@ -7751,7 +7749,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22">
       <c r="A106" s="13" t="s">
         <v>130</v>
       </c>
@@ -7796,7 +7794,7 @@
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22">
       <c r="A107" s="13" t="s">
         <v>130</v>
       </c>
@@ -7856,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22">
       <c r="A108" s="13" t="s">
         <v>130</v>
       </c>
@@ -7908,7 +7906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22">
       <c r="A109" s="13" t="s">
         <v>130</v>
       </c>
@@ -7963,7 +7961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22">
       <c r="A110" s="13" t="s">
         <v>130</v>
       </c>
@@ -8014,7 +8012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22">
       <c r="A111" s="13" t="s">
         <v>130</v>
       </c>
@@ -8068,7 +8066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22">
       <c r="A112" s="13" t="s">
         <v>130</v>
       </c>
@@ -8120,7 +8118,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -8172,7 +8170,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22">
       <c r="A114" s="13" t="s">
         <v>130</v>
       </c>
@@ -8227,7 +8225,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22">
       <c r="A115" s="13" t="s">
         <v>130</v>
       </c>
@@ -8285,7 +8283,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22">
       <c r="A116" s="13" t="s">
         <v>130</v>
       </c>
@@ -8330,7 +8328,7 @@
       <c r="U116" s="8"/>
       <c r="V116" s="8"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22">
       <c r="A117" s="13" t="s">
         <v>130</v>
       </c>
@@ -8390,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22">
       <c r="A118" s="13" t="s">
         <v>130</v>
       </c>
@@ -8442,7 +8440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22">
       <c r="A119" s="13" t="s">
         <v>130</v>
       </c>
@@ -8497,7 +8495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22">
       <c r="A120" s="13" t="s">
         <v>130</v>
       </c>
@@ -8548,7 +8546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22">
       <c r="A121" s="13" t="s">
         <v>130</v>
       </c>
@@ -8602,7 +8600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22">
       <c r="A122" s="13" t="s">
         <v>130</v>
       </c>
@@ -8654,7 +8652,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22">
       <c r="A123" s="13" t="s">
         <v>130</v>
       </c>
@@ -8706,7 +8704,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22">
       <c r="A124" s="13" t="s">
         <v>130</v>
       </c>
@@ -8761,7 +8759,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22">
       <c r="A125" s="13" t="s">
         <v>130</v>
       </c>
@@ -8827,14 +8825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D1" sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="14" style="8" customWidth="1"/>
@@ -8848,7 +8846,7 @@
     <col min="11" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
       <c r="B2" s="31" t="s">
         <v>363</v>
       </c>
@@ -8877,7 +8875,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="36.75" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>357</v>
       </c>
@@ -8897,12 +8895,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="36.75" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="36.75" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>349</v>
       </c>
@@ -8919,7 +8917,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="36.75" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>342</v>
       </c>
@@ -8936,7 +8934,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="36.75" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>69</v>
       </c>
@@ -8956,7 +8954,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="36.75" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>373</v>
       </c>
@@ -8982,7 +8980,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="36.75" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>119</v>
       </c>
@@ -9002,7 +9000,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="36.75" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>379</v>
       </c>
@@ -9022,7 +9020,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="36.75" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>338</v>
       </c>
@@ -9045,7 +9043,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="36.75" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>419</v>
       </c>
@@ -9065,7 +9063,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="36.75" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>353</v>
       </c>
@@ -9079,7 +9077,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="36.75" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>389</v>
       </c>
@@ -9099,7 +9097,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="36.75" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>403</v>
       </c>
@@ -9116,7 +9114,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="36.75" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>332</v>
       </c>
@@ -9139,7 +9137,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="36.75" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
@@ -9156,7 +9154,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="36.75" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>394</v>
       </c>
@@ -9179,7 +9177,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="36.75" customHeight="1">
       <c r="B19" s="8" t="s">
         <v>394</v>
       </c>
@@ -9202,21 +9200,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="21" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="22" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="23" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="24" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="25" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="26" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="27" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="28" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="29" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="30" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="31" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="32" spans="2:10" ht="42.75" customHeight="1"/>
+    <row r="33" ht="42.75" customHeight="1"/>
+    <row r="34" ht="42.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="B2:J2"/>
   <sortState ref="B3:J19">
@@ -9244,7 +9242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B2:V39"/>
   <sheetViews>
@@ -9252,7 +9250,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="5" customWidth="1"/>
     <col min="2" max="9" width="9.85546875" style="5" customWidth="1"/>
@@ -9262,7 +9260,7 @@
     <col min="13" max="16384" width="6.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" s="8" customFormat="1" ht="62.25" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>133</v>
       </c>
@@ -9320,7 +9318,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22">
       <c r="B3" s="5" t="s">
         <v>208</v>
       </c>
@@ -9355,7 +9353,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22">
       <c r="B4" s="5" t="s">
         <v>209</v>
       </c>
@@ -9390,7 +9388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:22">
       <c r="B5" s="5" t="s">
         <v>210</v>
       </c>
@@ -9425,7 +9423,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22">
       <c r="B6" s="5" t="s">
         <v>211</v>
       </c>
@@ -9460,7 +9458,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:22">
       <c r="B7" s="5" t="s">
         <v>134</v>
       </c>
@@ -9495,7 +9493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22">
       <c r="B8" s="5" t="s">
         <v>135</v>
       </c>
@@ -9530,7 +9528,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22">
       <c r="B9" s="5" t="s">
         <v>212</v>
       </c>
@@ -9565,7 +9563,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22">
       <c r="B10" s="5" t="s">
         <v>213</v>
       </c>
@@ -9600,7 +9598,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22">
       <c r="B11" s="5" t="s">
         <v>214</v>
       </c>
@@ -9635,7 +9633,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22">
       <c r="B12" s="5" t="s">
         <v>215</v>
       </c>
@@ -9670,7 +9668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22">
       <c r="B13" s="5" t="s">
         <v>136</v>
       </c>
@@ -9705,7 +9703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22">
       <c r="B14" s="5" t="s">
         <v>216</v>
       </c>
@@ -9740,7 +9738,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22">
       <c r="B15" s="5" t="s">
         <v>217</v>
       </c>
@@ -9775,7 +9773,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22">
       <c r="B16" s="5" t="s">
         <v>218</v>
       </c>
@@ -9810,46 +9808,46 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="10:10">
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="10:10">
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="10:10">
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="10:10">
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="10:10">
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="10:10">
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="10:10">
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10">
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10">
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10">
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10">
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:10">
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:10">
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:10">
       <c r="J39" s="5"/>
     </row>
   </sheetData>
@@ -9859,7 +9857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:W16"/>
   <sheetViews>
@@ -9868,7 +9866,7 @@
       <selection pane="topRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -9882,7 +9880,7 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -9942,7 +9940,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -10010,7 +10008,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -10069,7 +10067,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -10137,7 +10135,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -10202,7 +10200,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -10270,7 +10268,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -10335,7 +10333,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -10401,7 +10399,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -10467,7 +10465,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -10533,7 +10531,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="52" t="s">
         <v>130</v>
       </c>
@@ -10613,7 +10611,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -10679,7 +10677,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
@@ -10742,7 +10740,7 @@
         <v>81500</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -10805,7 +10803,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -10866,8 +10864,8 @@
         <v>0</v>
       </c>
       <c r="V16" s="50">
-        <f>91300-1500*10</f>
-        <v>76300</v>
+        <f>91300-1000*10</f>
+        <v>81300</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>425</v>
@@ -10881,7 +10879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
@@ -10889,7 +10887,7 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
@@ -10903,7 +10901,7 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -10951,7 +10949,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -10998,7 +10996,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -11042,7 +11040,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -11089,7 +11087,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -11137,7 +11135,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -11185,16 +11183,16 @@
         <v>81200</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="B11" s="7"/>
     </row>
   </sheetData>
@@ -11204,7 +11202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -11212,7 +11210,7 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="16" customWidth="1"/>
@@ -11225,7 +11223,7 @@
     <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
@@ -11267,7 +11265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>25</v>
       </c>
@@ -11311,7 +11309,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>141</v>
       </c>
@@ -11329,7 +11327,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
@@ -11370,7 +11368,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
@@ -11414,7 +11412,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>130</v>
       </c>
@@ -11464,7 +11462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:L46"/>
   <sheetViews>
@@ -11472,7 +11470,7 @@
       <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
@@ -11488,7 +11486,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -11521,7 +11519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -11559,7 +11557,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -11591,7 +11589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -11629,7 +11627,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -11664,7 +11662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -11699,7 +11697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -11734,7 +11732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -11772,7 +11770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -11810,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -11848,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
@@ -11886,7 +11884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -11924,103 +11922,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" s="7"/>
     </row>
   </sheetData>
@@ -12030,7 +12028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
@@ -12038,7 +12036,7 @@
       <selection sqref="A1:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
@@ -12061,7 +12059,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -12091,7 +12089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -12123,7 +12121,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -12152,7 +12150,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -12184,7 +12182,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -12216,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -12248,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -12280,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -12312,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -12344,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -12376,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
@@ -12408,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -12440,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
@@ -12472,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -12504,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -12536,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>130</v>
       </c>
@@ -12568,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
@@ -12600,7 +12598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -12632,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>130</v>
       </c>
@@ -12664,7 +12662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
@@ -12696,7 +12694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>130</v>
       </c>
@@ -12728,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -12760,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>130</v>
       </c>
@@ -12792,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>130</v>
       </c>
@@ -12824,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>130</v>
       </c>
@@ -12856,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -12888,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
@@ -12920,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>130</v>
       </c>
@@ -12952,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -12984,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>130</v>
       </c>
@@ -13016,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
@@ -13048,7 +13046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -13080,52 +13078,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="B41" s="7"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2">
       <c r="B69" s="7"/>
     </row>
   </sheetData>
@@ -13135,7 +13133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:K77"/>
   <sheetViews>
@@ -13143,7 +13141,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -13159,7 +13157,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -13180,7 +13178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -13206,12 +13204,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -13231,7 +13229,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -13260,7 +13258,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -13289,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="B7" s="7"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -13297,7 +13295,7 @@
       <c r="H7" s="34"/>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -13305,7 +13303,7 @@
       <c r="H8" s="34"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="B9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -13313,7 +13311,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="B10" s="7"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -13321,7 +13319,7 @@
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="B11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -13329,7 +13327,7 @@
       <c r="H11" s="34"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="B12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -13337,7 +13335,7 @@
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="B13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -13345,7 +13343,7 @@
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="B14" s="7"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -13353,7 +13351,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="B15" s="7"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -13361,7 +13359,7 @@
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="B16" s="7"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -13369,7 +13367,7 @@
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="7"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -13377,7 +13375,7 @@
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="B18" s="7"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -13385,7 +13383,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9">
       <c r="B19" s="7"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -13393,7 +13391,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9">
       <c r="B20" s="7"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -13401,314 +13399,314 @@
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9">
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="H21" s="34"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="H22" s="34"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="H23" s="34"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9">
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="H24" s="34"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9">
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="H25" s="34"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9">
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="H26" s="34"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9">
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9">
       <c r="B28" s="7"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9">
       <c r="B29" s="7"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9">
       <c r="B30" s="7"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9">
       <c r="B31" s="7"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9">
       <c r="B32" s="7"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="7"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="7"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="7"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="7"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="7"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="B38" s="7"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" s="7"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" s="7"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6">
       <c r="B41" s="7"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6">
       <c r="B42" s="7"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:6">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:6">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:6">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:6">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:6">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:6">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:6">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:6">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:6">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:6">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:6">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:6">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:6">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:6">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:6">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:6">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:6">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:6">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:6">
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:6">
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:6">
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:6">
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:6">
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:6">
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:6">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:6">
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:6">
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:6">
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:6">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -13719,7 +13717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:W12"/>
   <sheetViews>
@@ -13728,7 +13726,7 @@
       <selection pane="topRight" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11" style="1" customWidth="1"/>
@@ -13751,7 +13749,7 @@
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -13777,7 +13775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -13818,7 +13816,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -13847,7 +13845,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -13898,7 +13896,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -13922,7 +13920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -13946,7 +13944,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -13981,7 +13979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -14016,7 +14014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -14051,7 +14049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -14086,7 +14084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="F12" s="20"/>
     </row>
   </sheetData>

--- a/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/DIETER_PROSUMOD_MCP/data_input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LICENSE" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">storage!$A$5:$M$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Technologies!$A$5:$U$16</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -38,7 +38,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="V11" authorId="0">
+    <comment ref="V11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V13" authorId="0">
+    <comment ref="V13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0">
+    <comment ref="J16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1422,11 +1422,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,7 +1753,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1789,7 +1789,7 @@
         <xdr:cNvPr id="2" name="Grafik 1" descr="Creative Commons Lizenzvertrag">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1801,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1821,7 +1821,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1836,9 +1836,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1876,9 +1876,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1910,9 +1910,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1944,9 +1945,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2119,7 +2121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2"/>
   <sheetViews>
@@ -2127,9 +2129,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +2143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:AA125"/>
   <sheetViews>
@@ -2149,7 +2151,7 @@
       <selection sqref="A1:XFD125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="13"/>
     <col min="3" max="6" width="14" style="13" customWidth="1"/>
@@ -2161,7 +2163,7 @@
     <col min="19" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="1" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -2211,7 +2213,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="2" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -2329,7 +2331,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="38" customFormat="1" ht="30.75" customHeight="1">
+    <row r="5" spans="1:27" s="38" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>45</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>130</v>
       </c>
@@ -2444,7 +2446,7 @@
       <c r="Y6" s="24"/>
       <c r="AA6" s="24"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>130</v>
       </c>
@@ -2506,7 +2508,7 @@
       <c r="Y7" s="24"/>
       <c r="AA7" s="24"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>130</v>
       </c>
@@ -2560,7 +2562,7 @@
       <c r="Y8" s="24"/>
       <c r="AA8" s="24"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>130</v>
       </c>
@@ -2617,7 +2619,7 @@
       <c r="Y9" s="24"/>
       <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>130</v>
       </c>
@@ -2670,7 +2672,7 @@
       <c r="Y10" s="24"/>
       <c r="AA10" s="24"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>130</v>
       </c>
@@ -2726,7 +2728,7 @@
       <c r="Y11" s="24"/>
       <c r="AA11" s="24"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>130</v>
       </c>
@@ -2777,7 +2779,7 @@
       <c r="Y12" s="24"/>
       <c r="AA12" s="24"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>130</v>
       </c>
@@ -2828,7 +2830,7 @@
       <c r="Y13" s="24"/>
       <c r="AA13" s="24"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>130</v>
       </c>
@@ -2885,7 +2887,7 @@
       <c r="Y14" s="24"/>
       <c r="AA14" s="24"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>130</v>
       </c>
@@ -2945,7 +2947,7 @@
       <c r="Y15" s="24"/>
       <c r="AA15" s="24"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>130</v>
       </c>
@@ -2990,7 +2992,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>130</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>130</v>
       </c>
@@ -3102,7 +3104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>130</v>
       </c>
@@ -3157,7 +3159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>130</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>130</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>130</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>130</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>130</v>
       </c>
@@ -3421,7 +3423,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>130</v>
       </c>
@@ -3479,7 +3481,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>130</v>
       </c>
@@ -3524,7 +3526,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>130</v>
       </c>
@@ -3584,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>130</v>
       </c>
@@ -3636,7 +3638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>130</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>130</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>130</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>130</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>130</v>
       </c>
@@ -3900,7 +3902,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>130</v>
       </c>
@@ -3955,7 +3957,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>130</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>130</v>
       </c>
@@ -4058,7 +4060,7 @@
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>130</v>
       </c>
@@ -4118,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>130</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>130</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>130</v>
       </c>
@@ -4276,7 +4278,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
@@ -4330,7 +4332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>130</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>130</v>
       </c>
@@ -4434,7 +4436,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>130</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>130</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>130</v>
       </c>
@@ -4592,7 +4594,7 @@
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>130</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>130</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>130</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>130</v>
       </c>
@@ -4810,7 +4812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>130</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>130</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>130</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>130</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>130</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>130</v>
       </c>
@@ -5126,7 +5128,7 @@
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>130</v>
       </c>
@@ -5237,7 +5239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>130</v>
       </c>
@@ -5291,7 +5293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>130</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>130</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>130</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>130</v>
       </c>
@@ -5500,7 +5502,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>130</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>130</v>
       </c>
@@ -5613,7 +5615,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>130</v>
       </c>
@@ -5658,7 +5660,7 @@
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>130</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>130</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>130</v>
       </c>
@@ -5825,7 +5827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>130</v>
       </c>
@@ -5876,7 +5878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>130</v>
       </c>
@@ -5930,7 +5932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>130</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>130</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>130</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>130</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>130</v>
       </c>
@@ -6192,7 +6194,7 @@
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>130</v>
       </c>
@@ -6252,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>130</v>
       </c>
@@ -6304,7 +6306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>130</v>
       </c>
@@ -6359,7 +6361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>130</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>130</v>
       </c>
@@ -6464,7 +6466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>130</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>130</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>130</v>
       </c>
@@ -6623,7 +6625,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>130</v>
       </c>
@@ -6681,7 +6683,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>130</v>
       </c>
@@ -6726,7 +6728,7 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>130</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>130</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>130</v>
       </c>
@@ -6893,7 +6895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>130</v>
       </c>
@@ -6944,7 +6946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>130</v>
       </c>
@@ -6998,7 +7000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>130</v>
       </c>
@@ -7050,7 +7052,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>130</v>
       </c>
@@ -7102,7 +7104,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>130</v>
       </c>
@@ -7157,7 +7159,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>130</v>
       </c>
@@ -7215,7 +7217,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>130</v>
       </c>
@@ -7260,7 +7262,7 @@
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>130</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>130</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>130</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>130</v>
       </c>
@@ -7478,7 +7480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>130</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>130</v>
       </c>
@@ -7584,7 +7586,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>130</v>
       </c>
@@ -7636,7 +7638,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>130</v>
       </c>
@@ -7691,7 +7693,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>130</v>
       </c>
@@ -7749,7 +7751,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>130</v>
       </c>
@@ -7794,7 +7796,7 @@
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>130</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>130</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>130</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>130</v>
       </c>
@@ -8012,7 +8014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>130</v>
       </c>
@@ -8066,7 +8068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>130</v>
       </c>
@@ -8118,7 +8120,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>130</v>
       </c>
@@ -8170,7 +8172,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>130</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>130</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>130</v>
       </c>
@@ -8328,7 +8330,7 @@
       <c r="U116" s="8"/>
       <c r="V116" s="8"/>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>130</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>130</v>
       </c>
@@ -8440,7 +8442,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>130</v>
       </c>
@@ -8495,7 +8497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>130</v>
       </c>
@@ -8546,7 +8548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>130</v>
       </c>
@@ -8600,7 +8602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>130</v>
       </c>
@@ -8652,7 +8654,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>130</v>
       </c>
@@ -8704,7 +8706,7 @@
         <v>54.650399999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>130</v>
       </c>
@@ -8759,7 +8761,7 @@
         <v>30.956999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>130</v>
       </c>
@@ -8825,14 +8827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D1" sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="14" style="8" customWidth="1"/>
@@ -8846,7 +8848,7 @@
     <col min="11" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>363</v>
       </c>
@@ -8875,7 +8877,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="36.75" customHeight="1">
+    <row r="3" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>357</v>
       </c>
@@ -8895,12 +8897,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="36.75" customHeight="1">
+    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="36.75" customHeight="1">
+    <row r="5" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>349</v>
       </c>
@@ -8917,7 +8919,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="36.75" customHeight="1">
+    <row r="6" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>342</v>
       </c>
@@ -8934,7 +8936,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="36.75" customHeight="1">
+    <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>69</v>
       </c>
@@ -8954,7 +8956,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="36.75" customHeight="1">
+    <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>373</v>
       </c>
@@ -8980,7 +8982,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="36.75" customHeight="1">
+    <row r="9" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>119</v>
       </c>
@@ -9000,7 +9002,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="36.75" customHeight="1">
+    <row r="10" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>379</v>
       </c>
@@ -9020,7 +9022,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="36.75" customHeight="1">
+    <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>338</v>
       </c>
@@ -9043,7 +9045,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="36.75" customHeight="1">
+    <row r="12" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>419</v>
       </c>
@@ -9063,7 +9065,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="36.75" customHeight="1">
+    <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>353</v>
       </c>
@@ -9077,7 +9079,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="36.75" customHeight="1">
+    <row r="14" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>389</v>
       </c>
@@ -9097,7 +9099,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="36.75" customHeight="1">
+    <row r="15" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>403</v>
       </c>
@@ -9114,7 +9116,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="36.75" customHeight="1">
+    <row r="16" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>332</v>
       </c>
@@ -9137,7 +9139,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="36.75" customHeight="1">
+    <row r="17" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="36.75" customHeight="1">
+    <row r="18" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>394</v>
       </c>
@@ -9177,7 +9179,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="36.75" customHeight="1">
+    <row r="19" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>394</v>
       </c>
@@ -9200,21 +9202,21 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="21" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="22" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="23" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="24" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="25" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="26" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="27" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="28" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="29" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="30" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="31" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="32" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="33" ht="42.75" customHeight="1"/>
-    <row r="34" ht="42.75" customHeight="1"/>
+    <row r="20" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="B2:J2"/>
   <sortState ref="B3:J19">
@@ -9242,7 +9244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B2:V39"/>
   <sheetViews>
@@ -9250,7 +9252,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="5" customWidth="1"/>
     <col min="2" max="9" width="9.85546875" style="5" customWidth="1"/>
@@ -9260,7 +9262,7 @@
     <col min="13" max="16384" width="6.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" s="8" customFormat="1" ht="62.25" customHeight="1">
+    <row r="2" spans="2:22" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>133</v>
       </c>
@@ -9318,7 +9320,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>208</v>
       </c>
@@ -9353,7 +9355,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>209</v>
       </c>
@@ -9388,7 +9390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>210</v>
       </c>
@@ -9423,7 +9425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>211</v>
       </c>
@@ -9458,7 +9460,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>134</v>
       </c>
@@ -9493,7 +9495,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>135</v>
       </c>
@@ -9528,7 +9530,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>212</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>213</v>
       </c>
@@ -9598,7 +9600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>214</v>
       </c>
@@ -9633,7 +9635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>215</v>
       </c>
@@ -9668,7 +9670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>136</v>
       </c>
@@ -9703,7 +9705,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>216</v>
       </c>
@@ -9738,7 +9740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>217</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>218</v>
       </c>
@@ -9808,46 +9810,46 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="10:10">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="10:10">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="10:10">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="10:10">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="10:10">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="10:10">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="10:10">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="10:10">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="10:10">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" s="5"/>
     </row>
   </sheetData>
@@ -9857,16 +9859,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V17" sqref="V17"/>
+      <selection pane="topRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -9880,7 +9882,7 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -9940,7 +9942,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="2" spans="1:23" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -10067,7 +10069,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -10135,7 +10137,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -10200,7 +10202,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -10268,7 +10270,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -10333,7 +10335,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -10399,7 +10401,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -10465,7 +10467,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>130</v>
       </c>
@@ -10611,7 +10613,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -10677,7 +10679,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
@@ -10740,7 +10742,7 @@
         <v>81500</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -10803,7 +10805,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -10879,15 +10881,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
@@ -10901,7 +10903,7 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1">
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -10949,7 +10951,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -10996,7 +10998,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -11040,7 +11042,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -11087,7 +11089,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -11135,7 +11137,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -11152,7 +11154,7 @@
         <v>10000</v>
       </c>
       <c r="F7" s="50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="50">
         <v>3000000</v>
@@ -11183,16 +11185,16 @@
         <v>81200</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
     </row>
   </sheetData>
@@ -11202,7 +11204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -11210,7 +11212,7 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="16" customWidth="1"/>
@@ -11223,7 +11225,7 @@
     <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
@@ -11265,7 +11267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>25</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>141</v>
       </c>
@@ -11327,7 +11329,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
@@ -11368,7 +11370,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1">
+    <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>45</v>
       </c>
@@ -11412,7 +11414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>130</v>
       </c>
@@ -11462,7 +11464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:L46"/>
   <sheetViews>
@@ -11470,7 +11472,7 @@
       <selection sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
@@ -11486,7 +11488,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -11519,7 +11521,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -11557,7 +11559,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -11627,7 +11629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -11662,7 +11664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -11732,7 +11734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -11770,7 +11772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -11808,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
@@ -11884,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -11922,103 +11924,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
     </row>
   </sheetData>
@@ -12028,7 +12030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
@@ -12036,7 +12038,7 @@
       <selection sqref="A1:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
@@ -12059,7 +12061,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -12089,7 +12091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -12121,7 +12123,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -12150,7 +12152,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -12182,7 +12184,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -12214,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -12246,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -12278,7 +12280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -12310,7 +12312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -12342,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -12374,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>130</v>
       </c>
@@ -12406,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
@@ -12438,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
@@ -12470,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -12502,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>130</v>
       </c>
@@ -12534,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>130</v>
       </c>
@@ -12566,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
@@ -12598,7 +12600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>130</v>
       </c>
@@ -12630,7 +12632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>130</v>
       </c>
@@ -12662,7 +12664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>130</v>
       </c>
@@ -12694,7 +12696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>130</v>
       </c>
@@ -12726,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -12758,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>130</v>
       </c>
@@ -12790,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>130</v>
       </c>
@@ -12822,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>130</v>
       </c>
@@ -12854,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
@@ -12886,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
@@ -12918,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>130</v>
       </c>
@@ -12950,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -12982,7 +12984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>130</v>
       </c>
@@ -13014,7 +13016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
@@ -13046,7 +13048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -13078,52 +13080,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="7"/>
     </row>
   </sheetData>
@@ -13133,7 +13135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:K77"/>
   <sheetViews>
@@ -13141,7 +13143,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -13157,7 +13159,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -13178,7 +13180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -13204,12 +13206,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -13229,7 +13231,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -13258,7 +13260,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -13287,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -13295,7 +13297,7 @@
       <c r="H7" s="34"/>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -13303,7 +13305,7 @@
       <c r="H8" s="34"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -13311,7 +13313,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -13319,7 +13321,7 @@
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -13327,7 +13329,7 @@
       <c r="H11" s="34"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -13335,7 +13337,7 @@
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -13343,7 +13345,7 @@
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -13351,7 +13353,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -13359,7 +13361,7 @@
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -13367,7 +13369,7 @@
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -13375,7 +13377,7 @@
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -13383,7 +13385,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -13391,7 +13393,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -13399,314 +13401,314 @@
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="H21" s="34"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="H22" s="34"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="H23" s="34"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="H24" s="34"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="H25" s="34"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="H26" s="34"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="4:6">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="4:6">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="4:6">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="4:6">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="4:6">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="4:6">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="4:6">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="4:6">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="4:6">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="4:6">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="4:6">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="4:6">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="4:6">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="4:6">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="4:6">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="4:6">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="4:6">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="4:6">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="4:6">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="4:6">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="4:6">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -13717,7 +13719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:W12"/>
   <sheetViews>
@@ -13726,7 +13728,7 @@
       <selection pane="topRight" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11" style="1" customWidth="1"/>
@@ -13749,7 +13751,7 @@
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -13775,7 +13777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1">
+    <row r="2" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -13816,7 +13818,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -13845,7 +13847,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -13896,7 +13898,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
@@ -13920,7 +13922,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>130</v>
       </c>
@@ -13944,7 +13946,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -13979,7 +13981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -14014,7 +14016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -14049,7 +14051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>130</v>
       </c>
@@ -14084,7 +14086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F12" s="20"/>
     </row>
   </sheetData>
